--- a/xtt_demo/ZXXT_DEMO_051_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_051_R.XLSX
@@ -173,13 +173,13 @@
     <t>Average for SUM1 &amp; SUM2</t>
   </si>
   <si>
-    <t>COUNT = 4 </t>
-  </si>
-  <si>
-    <t>COUNT= 2 </t>
-  </si>
-  <si>
-    <t>COUNT= 5 </t>
+    <t>COUNT =                                                                                                   4</t>
+  </si>
+  <si>
+    <t>COUNT=                                                                                                   2</t>
+  </si>
+  <si>
+    <t>COUNT=                                                                                                   5</t>
   </si>
   <si>
     <t>Caption</t>
@@ -224,7 +224,7 @@
     <t>Group GRP A</t>
   </si>
   <si>
-    <t>Groups count 4  (level=0)</t>
+    <t>Groups count                                                                                                   4 (level=0)</t>
   </si>
   <si>
     <t>Header for GROUP 'B' 2 rows</t>
@@ -236,13 +236,13 @@
     <t>SUM 2</t>
   </si>
   <si>
-    <t>Sub items count 2 </t>
-  </si>
-  <si>
-    <t>Sub items count 4 </t>
-  </si>
-  <si>
-    <t>Sub items count 5 </t>
+    <t>Sub items count                                                                                                   2</t>
+  </si>
+  <si>
+    <t>Sub items count                                                                                                   4</t>
+  </si>
+  <si>
+    <t>Sub items count                                                                                                   5</t>
   </si>
   <si>
     <t>The last level is hid</t>
